--- a/examples/oucru/oucru-df/resources/outputs/templates/tmp/ccfgs_df_data_fixed.xlsx
+++ b/examples/oucru/oucru-df/resources/outputs/templates/tmp/ccfgs_df_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbit/Desktop/repositories/github/datablend/main/examples/oucru/oucru-df/resources/outputs/templates/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF470A4E-7AF4-3E4C-96B4-7BA3E2FE6A3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1559FF49-E152-1648-BB48-BAA6E4466120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="9280" windowWidth="24560" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
@@ -1531,10 +1531,24 @@
   <dimension ref="A1:L222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L222"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">

--- a/examples/oucru/oucru-df/resources/outputs/templates/tmp/ccfgs_df_data_fixed.xlsx
+++ b/examples/oucru/oucru-df/resources/outputs/templates/tmp/ccfgs_df_data_fixed.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbit/Desktop/repositories/github/datablend/main/examples/oucru/oucru-df/resources/outputs/templates/tmp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1559FF49-E152-1648-BB48-BAA6E4466120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="9280" windowWidth="24560" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
     <sheet name="FINAL_ELISA_14DEC2012_ALL_DATA" sheetId="2" r:id="rId2"/>
     <sheet name="FINAL_ELISA_SUMMARY" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="322">
   <si>
     <t>from_name</t>
   </si>
@@ -777,9 +771,30 @@
     <t>{'Home': 'V_0', 'Another hospital': 'V_1', 'Unknown': 'V_3', 'Other': 'V_4'}</t>
   </si>
   <si>
+    <t>{'Yes': 'V_0'}</t>
+  </si>
+  <si>
+    <t>{'Yes': 'V_0', 'No': 'V_1', 'Unknow': 'V_2'}</t>
+  </si>
+  <si>
+    <t>{'No': 'V_0', 'Yes': 'V_1', 'Unknow': 'V_2'}</t>
+  </si>
+  <si>
+    <t>{'No': 'V_0', 'Unknow': 'V_1', 'Yes': 'V_3'}</t>
+  </si>
+  <si>
     <t>{3: 'V_1'}</t>
   </si>
   <si>
+    <t>{'No': 'V_0', 'Yes': 'V_2', 'Unknow': 'V_3'}</t>
+  </si>
+  <si>
+    <t>{'Yes': 'V_0', 'No': 'V_1', 'Unknow': 'V_3'}</t>
+  </si>
+  <si>
+    <t>{'No': 'V_0', 'Yes': 'V_1', 'Unknow': 'V_3'}</t>
+  </si>
+  <si>
     <t>{6: 'V_1', 1: 'V_2', 2: 'V_3', 3: 'V_4', 5: 'V_5'}</t>
   </si>
   <si>
@@ -792,18 +807,36 @@
     <t>{2: 'V_1', 1: 'V_2', 3: 'V_3', 4: 'V_4', 7: 'V_5'}</t>
   </si>
   <si>
+    <t>{'Yes': 'V_0', 'No': 'V_2'}</t>
+  </si>
+  <si>
+    <t>{'Yes': 'V_0', 'No': 'V_2', 'Unknow': 'V_3'}</t>
+  </si>
+  <si>
+    <t>{'Not done': 'V_0', 'Positive': 'V_1', 'Negative': 'V_3'}</t>
+  </si>
+  <si>
     <t>{'No': 'V_0', 'Yes': 'V_2'}</t>
   </si>
   <si>
     <t>{'Yes': 'V_0', 'No': 'V_1'}</t>
   </si>
   <si>
+    <t>{'Yes': 'V_1', 'No': 'V_2'}</t>
+  </si>
+  <si>
+    <t>{'Yes': 'V_1'}</t>
+  </si>
+  <si>
     <t>{'Skin': 'V_0', 'Mucose': 'V_1', 'None': 'V_2'}</t>
   </si>
   <si>
     <t>{'&gt;10': 'V_0', '&lt;=10': 'V_1'}</t>
   </si>
   <si>
+    <t>{'Normal': 'V_0', 'Abnormal': 'V_2'}</t>
+  </si>
+  <si>
     <t>{}</t>
   </si>
   <si>
@@ -813,6 +846,9 @@
     <t>{'No': 'V_0'}</t>
   </si>
   <si>
+    <t>{0: 'V_1', 1: 'V_2', 3: 'V_3', 2: 'V_4'}</t>
+  </si>
+  <si>
     <t>{'bruising on face for trauma': 'V_1', 'Stool results: RC+,WC ++, E.histolytice +': 'V_2', 'Epigastrium pain': 'V_3'}</t>
   </si>
   <si>
@@ -933,206 +969,26 @@
     <t>ig_g_result</t>
   </si>
   <si>
-    <t>{'DF': 'V_0', 'DR': 'V_1', 'MD': 'V_2'}</t>
-  </si>
-  <si>
     <t>{'pos': 'V_0', 'equiv': 'V_1', 'neg': 'V_2'}</t>
   </si>
   <si>
     <t>{'any positive': 'V_0', 'missing': 'V_1', 'all negative': 'V_2'}</t>
   </si>
   <si>
-    <t>{'Quy': 'V_0', 'Long': 'V_1', 'Vinh': 'V_2', 'DR': 'V_3'}</t>
-  </si>
-  <si>
-    <t>{'PanBio': 'V_0', 'Cardosa': 'V_1', 'New': 'V_2', 'DR': 'V_3'}</t>
-  </si>
-  <si>
-    <t>{'Yes': 'V_0', 'No': 'V_1', 'Unknown': 'V_2'}</t>
+    <t>{'Quy': 'V_0', 'Long': 'V_1', 'Vinh': 'V_2'}</t>
+  </si>
+  <si>
+    <t>{'PanBio': 'V_0', 'Cardosa': 'V_1', 'New': 'V_2'}</t>
   </si>
   <si>
     <t>{'secondary': 'V_0', 'unknown': 'V_1', 'check (possible primary)': 'V_2', 'primary': 'V_3'}</t>
-  </si>
-  <si>
-    <t>study_day_col</t>
-  </si>
-  <si>
-    <t>study_day_ref</t>
-  </si>
-  <si>
-    <t>study_no</t>
-  </si>
-  <si>
-    <t>date_enrolment</t>
-  </si>
-  <si>
-    <t>study_date</t>
-  </si>
-  <si>
-    <t>study_time</t>
-  </si>
-  <si>
-    <t>parental_fluid</t>
-  </si>
-  <si>
-    <t>{'No': False, 'Yes': True}</t>
-  </si>
-  <si>
-    <t>date_observation</t>
-  </si>
-  <si>
-    <t>{'Yes': True}</t>
-  </si>
-  <si>
-    <t>headache</t>
-  </si>
-  <si>
-    <t>{'Yes': True, 'No': False, 'Unknow': None}</t>
-  </si>
-  <si>
-    <t>headache_d</t>
-  </si>
-  <si>
-    <t>restlessness</t>
-  </si>
-  <si>
-    <t>restlessness_d</t>
-  </si>
-  <si>
-    <t>vomiting</t>
-  </si>
-  <si>
-    <t>vomiting_d</t>
-  </si>
-  <si>
-    <t>abdominal_pain</t>
-  </si>
-  <si>
-    <t>abdominal_pain_d</t>
-  </si>
-  <si>
-    <t>skin_rash</t>
-  </si>
-  <si>
-    <t>skin_rash_d</t>
-  </si>
-  <si>
-    <t>bleeding_skin</t>
-  </si>
-  <si>
-    <t>bleeding_skin_d</t>
-  </si>
-  <si>
-    <t>petechiae</t>
-  </si>
-  <si>
-    <t>{'Yes': True, 'No': False}</t>
-  </si>
-  <si>
-    <t>body_temperature</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>tourniquet_test_interpretation</t>
-  </si>
-  <si>
-    <t>{'Not done': None, 'Positive': 'Positive', 'Negative': 'Negative'}</t>
-  </si>
-  <si>
-    <t>skin_rash_description</t>
-  </si>
-  <si>
-    <t>lymphadenopathy</t>
-  </si>
-  <si>
-    <t>bleeding</t>
-  </si>
-  <si>
-    <t>bleeding_gum</t>
-  </si>
-  <si>
-    <t>bruising</t>
-  </si>
-  <si>
-    <t>bleeding_gi</t>
-  </si>
-  <si>
-    <t>bleeding_vaginal</t>
-  </si>
-  <si>
-    <t>sbp</t>
-  </si>
-  <si>
-    <t>dbp</t>
-  </si>
-  <si>
-    <t>pulse_pressure</t>
-  </si>
-  <si>
-    <t>{'&lt;5': 3, 0: None}</t>
-  </si>
-  <si>
-    <t>heart_sound</t>
-  </si>
-  <si>
-    <t>{'Normal': False, 'Abnormal': True}</t>
-  </si>
-  <si>
-    <t>heart_sound_specification</t>
-  </si>
-  <si>
-    <t>pleural_effusion_left</t>
-  </si>
-  <si>
-    <t>pleural_effusion_right</t>
-  </si>
-  <si>
-    <t>respiratory_rate</t>
-  </si>
-  <si>
-    <t>abdominal_distension</t>
-  </si>
-  <si>
-    <t>abdominal_tenderness</t>
-  </si>
-  <si>
-    <t>liver_palpation_size</t>
-  </si>
-  <si>
-    <t>spleen_palpation_size</t>
-  </si>
-  <si>
-    <t>{0: 0, 1: 1, 3: 3, 2: 2}</t>
-  </si>
-  <si>
-    <t>ascites</t>
-  </si>
-  <si>
-    <t>cns_abnormal</t>
-  </si>
-  <si>
-    <t>{'Recovery': 'Full recovery', 'Died': 'Died'}</t>
-  </si>
-  <si>
-    <t>date_discharge</t>
-  </si>
-  <si>
-    <t>death_date</t>
-  </si>
-  <si>
-    <t>death_from_shock</t>
-  </si>
-  <si>
-    <t>multiple_shock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,26 +1040,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1250,7 +1097,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1282,27 +1129,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1334,24 +1163,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1527,68 +1338,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L222"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1602,12 +1391,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>239</v>
@@ -1616,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1633,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1647,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1664,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1678,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1695,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1709,12 +1498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>239</v>
@@ -1722,11 +1511,8 @@
       <c r="F10" t="b">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1740,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1754,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1771,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1788,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1802,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1816,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1833,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1850,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1864,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1878,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1892,12 +1678,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>244</v>
@@ -1906,12 +1692,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>244</v>
@@ -1920,12 +1706,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>244</v>
@@ -1934,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1951,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1965,27 +1751,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>240</v>
       </c>
       <c r="D27" t="s">
-        <v>317</v>
-      </c>
-      <c r="E27" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1996,13 +1779,13 @@
         <v>240</v>
       </c>
       <c r="D28" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2016,32 +1799,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>320</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>240</v>
       </c>
       <c r="D30" t="s">
-        <v>321</v>
-      </c>
-      <c r="E30" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>239</v>
@@ -2050,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2061,13 +1841,13 @@
         <v>240</v>
       </c>
       <c r="D32" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2081,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2092,13 +1872,13 @@
         <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2109,38 +1889,35 @@
         <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>323</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>240</v>
       </c>
       <c r="D36" t="s">
-        <v>321</v>
-      </c>
-      <c r="E36" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
         <v>239</v>
@@ -2149,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2160,16 +1937,13 @@
         <v>240</v>
       </c>
       <c r="D38" t="s">
-        <v>321</v>
-      </c>
-      <c r="E38" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2183,32 +1957,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>325</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
         <v>240</v>
       </c>
       <c r="D40" t="s">
-        <v>321</v>
-      </c>
-      <c r="E40" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>326</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
         <v>239</v>
@@ -2217,32 +1988,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
         <v>240</v>
       </c>
       <c r="D42" t="s">
-        <v>321</v>
-      </c>
-      <c r="E42" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>328</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
         <v>239</v>
@@ -2251,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2262,16 +2030,13 @@
         <v>240</v>
       </c>
       <c r="D44" t="s">
-        <v>321</v>
-      </c>
-      <c r="E44" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -2285,98 +2050,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>329</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
         <v>240</v>
       </c>
       <c r="D46" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>330</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
         <v>240</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>331</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
         <v>240</v>
       </c>
       <c r="D48" t="s">
-        <v>321</v>
-      </c>
-      <c r="E48" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>332</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
         <v>240</v>
       </c>
       <c r="D49" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>333</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
         <v>240</v>
       </c>
       <c r="D50" t="s">
-        <v>321</v>
-      </c>
-      <c r="E50" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -2390,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -2401,13 +2160,13 @@
         <v>240</v>
       </c>
       <c r="D52" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -2418,13 +2177,13 @@
         <v>240</v>
       </c>
       <c r="D53" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -2438,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2449,13 +2208,13 @@
         <v>240</v>
       </c>
       <c r="D55" t="s">
-        <v>334</v>
+        <v>263</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2466,13 +2225,13 @@
         <v>240</v>
       </c>
       <c r="D56" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -2486,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -2497,13 +2256,13 @@
         <v>240</v>
       </c>
       <c r="D58" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -2517,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -2528,13 +2287,13 @@
         <v>240</v>
       </c>
       <c r="D60" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2548,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -2559,13 +2318,13 @@
         <v>240</v>
       </c>
       <c r="D62" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -2579,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -2593,83 +2352,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>335</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
         <v>242</v>
       </c>
-      <c r="E65" t="s">
-        <v>318</v>
-      </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>242</v>
       </c>
-      <c r="E66" t="s">
-        <v>318</v>
-      </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>337</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
         <v>240</v>
       </c>
       <c r="D67" t="s">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
         <v>240</v>
       </c>
       <c r="D68" t="s">
-        <v>334</v>
-      </c>
-      <c r="E68" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
         <v>241</v>
@@ -2678,87 +2428,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
         <v>240</v>
       </c>
       <c r="D70" t="s">
-        <v>334</v>
-      </c>
-      <c r="E70" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
         <v>240</v>
       </c>
       <c r="D71" t="s">
-        <v>334</v>
-      </c>
-      <c r="E71" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
         <v>240</v>
       </c>
       <c r="D72" t="s">
-        <v>334</v>
-      </c>
-      <c r="E72" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
         <v>240</v>
       </c>
       <c r="D73" t="s">
-        <v>334</v>
-      </c>
-      <c r="E73" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -2769,73 +2507,64 @@
         <v>240</v>
       </c>
       <c r="D74" t="s">
-        <v>334</v>
-      </c>
-      <c r="E74" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>343</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
         <v>240</v>
       </c>
       <c r="D75" t="s">
-        <v>334</v>
-      </c>
-      <c r="E75" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>344</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
         <v>240</v>
       </c>
       <c r="D76" t="s">
-        <v>334</v>
-      </c>
-      <c r="E76" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>345</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
         <v>240</v>
       </c>
       <c r="D77" t="s">
-        <v>334</v>
+        <v>269</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -2846,13 +2575,13 @@
         <v>240</v>
       </c>
       <c r="D78" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -2862,68 +2591,53 @@
       <c r="C79" t="s">
         <v>239</v>
       </c>
-      <c r="E79" t="s">
-        <v>318</v>
-      </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>346</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
         <v>239</v>
       </c>
-      <c r="E80" t="s">
-        <v>318</v>
-      </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>347</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
         <v>239</v>
       </c>
-      <c r="E81" t="s">
-        <v>318</v>
-      </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>348</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
         <v>243</v>
       </c>
-      <c r="D82" t="s">
-        <v>349</v>
-      </c>
-      <c r="E82" t="s">
-        <v>318</v>
-      </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -2934,50 +2648,47 @@
         <v>240</v>
       </c>
       <c r="D83" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>350</v>
+        <v>92</v>
       </c>
       <c r="C84" t="s">
         <v>240</v>
       </c>
       <c r="D84" t="s">
-        <v>351</v>
-      </c>
-      <c r="E84" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>352</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
         <v>240</v>
       </c>
       <c r="D85" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -2988,13 +2699,13 @@
         <v>240</v>
       </c>
       <c r="D86" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -3005,70 +2716,61 @@
         <v>240</v>
       </c>
       <c r="D87" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="C88" t="s">
         <v>240</v>
       </c>
       <c r="D88" t="s">
-        <v>334</v>
-      </c>
-      <c r="E88" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>354</v>
+        <v>97</v>
       </c>
       <c r="C89" t="s">
         <v>240</v>
       </c>
       <c r="D89" t="s">
-        <v>334</v>
-      </c>
-      <c r="E89" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>355</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
         <v>239</v>
       </c>
-      <c r="E90" t="s">
-        <v>318</v>
-      </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -3085,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -3096,13 +2798,13 @@
         <v>240</v>
       </c>
       <c r="D92" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -3113,13 +2815,13 @@
         <v>240</v>
       </c>
       <c r="D93" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>102</v>
       </c>
@@ -3130,13 +2832,13 @@
         <v>240</v>
       </c>
       <c r="D94" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -3147,130 +2849,112 @@
         <v>240</v>
       </c>
       <c r="D95" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>356</v>
+        <v>104</v>
       </c>
       <c r="C96" t="s">
         <v>240</v>
       </c>
       <c r="D96" t="s">
-        <v>334</v>
-      </c>
-      <c r="E96" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>357</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s">
         <v>240</v>
       </c>
       <c r="D97" t="s">
-        <v>334</v>
-      </c>
-      <c r="E97" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>358</v>
+        <v>106</v>
       </c>
       <c r="C98" t="s">
         <v>242</v>
       </c>
-      <c r="E98" t="s">
-        <v>318</v>
-      </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>359</v>
+        <v>107</v>
       </c>
       <c r="C99" t="s">
         <v>240</v>
       </c>
       <c r="D99" t="s">
-        <v>360</v>
-      </c>
-      <c r="E99" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="C100" t="s">
         <v>240</v>
       </c>
       <c r="D100" t="s">
-        <v>334</v>
-      </c>
-      <c r="E100" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>362</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
         <v>240</v>
       </c>
       <c r="D101" t="s">
-        <v>334</v>
-      </c>
-      <c r="E101" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>110</v>
       </c>
@@ -3281,13 +2965,13 @@
         <v>240</v>
       </c>
       <c r="D102" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>111</v>
       </c>
@@ -3298,21 +2982,18 @@
         <v>240</v>
       </c>
       <c r="D103" t="s">
-        <v>363</v>
-      </c>
-      <c r="E103" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>364</v>
+        <v>112</v>
       </c>
       <c r="C104" t="s">
         <v>244</v>
@@ -3321,12 +3002,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>365</v>
+        <v>113</v>
       </c>
       <c r="C105" t="s">
         <v>244</v>
@@ -3335,24 +3016,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>366</v>
+        <v>114</v>
       </c>
       <c r="C106" t="s">
         <v>240</v>
       </c>
       <c r="D106" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -3363,13 +3044,13 @@
         <v>240</v>
       </c>
       <c r="D107" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -3383,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -3394,13 +3075,13 @@
         <v>240</v>
       </c>
       <c r="D109" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>118</v>
       </c>
@@ -3411,13 +3092,13 @@
         <v>240</v>
       </c>
       <c r="D110" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>119</v>
       </c>
@@ -3434,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>120</v>
       </c>
@@ -3448,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -3465,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>122</v>
       </c>
@@ -3482,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -3496,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>124</v>
       </c>
@@ -3513,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -3527,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>126</v>
       </c>
@@ -3541,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>127</v>
       </c>
@@ -3552,13 +3233,13 @@
         <v>240</v>
       </c>
       <c r="D119" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -3572,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>129</v>
       </c>
@@ -3589,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>130</v>
       </c>
@@ -3600,13 +3281,13 @@
         <v>240</v>
       </c>
       <c r="D122" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>131</v>
       </c>
@@ -3620,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>132</v>
       </c>
@@ -3631,13 +3312,13 @@
         <v>240</v>
       </c>
       <c r="D124" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>133</v>
       </c>
@@ -3651,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>134</v>
       </c>
@@ -3668,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>135</v>
       </c>
@@ -3682,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -3696,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -3713,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -3727,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -3738,13 +3419,13 @@
         <v>240</v>
       </c>
       <c r="D131" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>140</v>
       </c>
@@ -3758,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -3769,13 +3450,13 @@
         <v>240</v>
       </c>
       <c r="D133" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -3792,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -3806,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -3823,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>145</v>
       </c>
@@ -3837,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -3854,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -3868,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>148</v>
       </c>
@@ -3882,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>149</v>
       </c>
@@ -3896,24 +3577,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>367</v>
+        <v>150</v>
       </c>
       <c r="C142" t="s">
         <v>240</v>
       </c>
       <c r="D142" t="s">
-        <v>334</v>
+        <v>267</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>151</v>
       </c>
@@ -3927,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -3941,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>153</v>
       </c>
@@ -3955,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>154</v>
       </c>
@@ -3969,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>155</v>
       </c>
@@ -3980,13 +3661,13 @@
         <v>240</v>
       </c>
       <c r="D147" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>156</v>
       </c>
@@ -4000,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>157</v>
       </c>
@@ -4014,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -4028,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>159</v>
       </c>
@@ -4042,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -4056,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -4070,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -4084,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -4095,13 +3776,13 @@
         <v>240</v>
       </c>
       <c r="D155" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>164</v>
       </c>
@@ -4115,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>165</v>
       </c>
@@ -4129,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>166</v>
       </c>
@@ -4140,13 +3821,13 @@
         <v>240</v>
       </c>
       <c r="D158" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="F158" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -4157,13 +3838,13 @@
         <v>240</v>
       </c>
       <c r="D159" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="F159" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -4180,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -4191,13 +3872,13 @@
         <v>240</v>
       </c>
       <c r="D161" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -4208,13 +3889,13 @@
         <v>240</v>
       </c>
       <c r="D162" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="F162" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>171</v>
       </c>
@@ -4225,13 +3906,13 @@
         <v>240</v>
       </c>
       <c r="D163" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>172</v>
       </c>
@@ -4242,13 +3923,13 @@
         <v>240</v>
       </c>
       <c r="D164" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F164" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -4262,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>174</v>
       </c>
@@ -4276,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -4290,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>176</v>
       </c>
@@ -4304,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>177</v>
       </c>
@@ -4318,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>178</v>
       </c>
@@ -4332,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>179</v>
       </c>
@@ -4346,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -4360,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -4374,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -4388,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -4399,13 +4080,13 @@
         <v>240</v>
       </c>
       <c r="D175" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -4416,13 +4097,13 @@
         <v>240</v>
       </c>
       <c r="D176" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="F176" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>185</v>
       </c>
@@ -4433,13 +4114,13 @@
         <v>240</v>
       </c>
       <c r="D177" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>186</v>
       </c>
@@ -4450,13 +4131,13 @@
         <v>240</v>
       </c>
       <c r="D178" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>187</v>
       </c>
@@ -4467,13 +4148,13 @@
         <v>240</v>
       </c>
       <c r="D179" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>188</v>
       </c>
@@ -4487,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>189</v>
       </c>
@@ -4498,13 +4179,13 @@
         <v>240</v>
       </c>
       <c r="D181" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -4515,13 +4196,13 @@
         <v>240</v>
       </c>
       <c r="D182" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>191</v>
       </c>
@@ -4532,13 +4213,13 @@
         <v>240</v>
       </c>
       <c r="D183" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>192</v>
       </c>
@@ -4549,13 +4230,13 @@
         <v>240</v>
       </c>
       <c r="D184" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>193</v>
       </c>
@@ -4569,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>194</v>
       </c>
@@ -4583,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>195</v>
       </c>
@@ -4594,13 +4275,13 @@
         <v>240</v>
       </c>
       <c r="D187" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>196</v>
       </c>
@@ -4614,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>197</v>
       </c>
@@ -4631,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>198</v>
       </c>
@@ -4648,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>199</v>
       </c>
@@ -4662,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>200</v>
       </c>
@@ -4673,13 +4354,13 @@
         <v>240</v>
       </c>
       <c r="D192" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>201</v>
       </c>
@@ -4690,13 +4371,13 @@
         <v>240</v>
       </c>
       <c r="D193" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>202</v>
       </c>
@@ -4707,13 +4388,13 @@
         <v>240</v>
       </c>
       <c r="D194" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>203</v>
       </c>
@@ -4730,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>204</v>
       </c>
@@ -4741,13 +4422,13 @@
         <v>240</v>
       </c>
       <c r="D196" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>205</v>
       </c>
@@ -4761,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>206</v>
       </c>
@@ -4775,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>207</v>
       </c>
@@ -4789,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>208</v>
       </c>
@@ -4803,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>209</v>
       </c>
@@ -4814,13 +4495,13 @@
         <v>240</v>
       </c>
       <c r="D201" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>210</v>
       </c>
@@ -4831,13 +4512,13 @@
         <v>240</v>
       </c>
       <c r="D202" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>211</v>
       </c>
@@ -4848,13 +4529,13 @@
         <v>240</v>
       </c>
       <c r="D203" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
         <v>212</v>
       </c>
@@ -4871,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>213</v>
       </c>
@@ -4882,13 +4563,13 @@
         <v>240</v>
       </c>
       <c r="D205" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>214</v>
       </c>
@@ -4899,13 +4580,13 @@
         <v>240</v>
       </c>
       <c r="D206" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="F206" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>215</v>
       </c>
@@ -4922,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>216</v>
       </c>
@@ -4939,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
         <v>217</v>
       </c>
@@ -4956,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6">
       <c r="A210" t="s">
         <v>218</v>
       </c>
@@ -4973,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6">
       <c r="A211" t="s">
         <v>219</v>
       </c>
@@ -4990,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6">
       <c r="A212" t="s">
         <v>220</v>
       </c>
@@ -5007,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6">
       <c r="A213" t="s">
         <v>221</v>
       </c>
@@ -5024,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6">
       <c r="A214" t="s">
         <v>222</v>
       </c>
@@ -5035,13 +4716,13 @@
         <v>240</v>
       </c>
       <c r="D214" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="F214" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
         <v>223</v>
       </c>
@@ -5052,13 +4733,13 @@
         <v>240</v>
       </c>
       <c r="D215" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F215" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
         <v>224</v>
       </c>
@@ -5072,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
         <v>225</v>
       </c>
@@ -5086,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
         <v>226</v>
       </c>
@@ -5100,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6">
       <c r="A219" t="s">
         <v>227</v>
       </c>
@@ -5114,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6">
       <c r="A220" t="s">
         <v>228</v>
       </c>
@@ -5128,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6">
       <c r="A221" t="s">
         <v>229</v>
       </c>
@@ -5140,23 +4821,6 @@
       </c>
       <c r="F221" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>318</v>
-      </c>
-      <c r="B222" t="s">
-        <v>318</v>
-      </c>
-      <c r="C222" t="s">
-        <v>244</v>
-      </c>
-      <c r="G222" t="s">
-        <v>31</v>
-      </c>
-      <c r="H222" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -5165,14 +4829,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5204,7 +4868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5215,13 +4879,13 @@
         <v>240</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5229,13 +4893,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -5249,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -5263,12 +4927,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
         <v>239</v>
@@ -5277,12 +4941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
         <v>242</v>
@@ -5291,12 +4955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C8" t="s">
         <v>242</v>
@@ -5305,24 +4969,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C9" t="s">
         <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -5333,13 +4997,13 @@
         <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -5350,64 +5014,64 @@
         <v>240</v>
       </c>
       <c r="D11" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C12" t="s">
         <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C13" t="s">
         <v>240</v>
       </c>
       <c r="D13" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C14" t="s">
         <v>240</v>
       </c>
       <c r="D14" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -5418,10 +5082,24 @@
         <v>240</v>
       </c>
       <c r="D15" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5430,14 +5108,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5469,7 +5147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5480,13 +5158,13 @@
         <v>240</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5494,13 +5172,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -5514,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -5528,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>209</v>
       </c>
@@ -5539,13 +5217,13 @@
         <v>240</v>
       </c>
       <c r="D6" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>210</v>
       </c>
@@ -5556,64 +5234,64 @@
         <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
         <v>240</v>
       </c>
       <c r="D8" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C9" t="s">
         <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C10" t="s">
         <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>211</v>
       </c>
@@ -5624,7 +5302,7 @@
         <v>240</v>
       </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
